--- a/Filing Names/Scraped Filing Document Names.xlsx
+++ b/Filing Names/Scraped Filing Document Names.xlsx
@@ -34,28 +34,28 @@
     <t>consolidated balance sheets</t>
   </si>
   <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>Balance Sheets</t>
-  </si>
-  <si>
-    <t>Consolidated Balance Sheets (Unaudited)</t>
-  </si>
-  <si>
-    <t>Condensed Consolidated Balance Sheets</t>
-  </si>
-  <si>
-    <t>Condensed Balance Sheets</t>
-  </si>
-  <si>
-    <t>CONDENSED CONSOLIDATED BALANCE SHEETS (UNAUDITED)</t>
-  </si>
-  <si>
-    <t>Condensed Consolidating Balance Sheets (Details)</t>
-  </si>
-  <si>
-    <t>Consolidating Financial Information Consolidating Balance Sheet (Details)</t>
+    <t>balance sheet</t>
+  </si>
+  <si>
+    <t>balance sheets</t>
+  </si>
+  <si>
+    <t>consolidated balance sheets unaudited</t>
+  </si>
+  <si>
+    <t>condensed consolidated balance sheets</t>
+  </si>
+  <si>
+    <t>condensed balance sheets</t>
+  </si>
+  <si>
+    <t>condensed consolidated balance sheets unaudited</t>
+  </si>
+  <si>
+    <t>condensed consolidating balance sheets details</t>
+  </si>
+  <si>
+    <t>consolidating financial information consolidating balance sheet details</t>
   </si>
   <si>
     <t>consolidated statements of operations and comprehensive income loss</t>
@@ -64,34 +64,34 @@
     <t>consolidated statement of operations</t>
   </si>
   <si>
-    <t>Statement of Operations</t>
-  </si>
-  <si>
-    <t>Quarterly Results of Operations</t>
-  </si>
-  <si>
-    <t>CONSOLIDATED STATEMENTS OF OPERATIONS AND COMPREHENSIVE LOSS</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Operations</t>
-  </si>
-  <si>
-    <t>Consolidated Statements of Operations (Unaudited)</t>
-  </si>
-  <si>
-    <t>Condensed Consolidated Statements of Operations (Unaudited)</t>
-  </si>
-  <si>
-    <t>Condensed Statements of Operations</t>
-  </si>
-  <si>
-    <t>BUSINESS SEGMENTS (Summary of Certain Financial Information from Continuing Operations by Reportable Segment) (Details)</t>
-  </si>
-  <si>
-    <t>Condensed Consolidating Statements of Earnings and Comprehensive Income (Details)</t>
-  </si>
-  <si>
-    <t>Condensed Consolidated Statements Of Income</t>
+    <t>statement of operations</t>
+  </si>
+  <si>
+    <t>quarterly results of operations</t>
+  </si>
+  <si>
+    <t>consolidated statements of operations and comprehensive loss</t>
+  </si>
+  <si>
+    <t>consolidated statements of operations</t>
+  </si>
+  <si>
+    <t>consolidated statements of operations unaudited</t>
+  </si>
+  <si>
+    <t>condensed consolidated statements of operations unaudited</t>
+  </si>
+  <si>
+    <t>condensed statements of operations</t>
+  </si>
+  <si>
+    <t>business segments summary of certain financial information from continuing operations by reportable segment details</t>
+  </si>
+  <si>
+    <t>condensed consolidating statements of earnings and comprehensive income details</t>
+  </si>
+  <si>
+    <t>condensed consolidated statements of income</t>
   </si>
   <si>
     <t>consolidated statements of cash flows</t>
@@ -100,7 +100,7 @@
     <t>statement of cash flows</t>
   </si>
   <si>
-    <t>CONDENSED CONSOLIDATED STATEMENTS OF STOCKHOLDERS' EQUITY (UNAUDITED)</t>
+    <t>condensed consolidated statements of stockholders equity unaudited</t>
   </si>
   <si>
     <t>consolidated statements of stockholders deficit equity</t>
@@ -109,19 +109,19 @@
     <t>consolidated statement of changes in stockholders equity</t>
   </si>
   <si>
-    <t>Consolidated Balance Sheets (Parenthetical)</t>
-  </si>
-  <si>
-    <t>Stock-Based Compensation (Recognized Stock-Based Compensation Expense) (Details)</t>
-  </si>
-  <si>
-    <t>Condensed Consolidated Statements of Cash Flows (Unaudited) (Parenthetical)</t>
-  </si>
-  <si>
-    <t>COMMITMENTS AND CONTINGENCIES (Details Narrative)</t>
-  </si>
-  <si>
-    <t>CONDENSED CONSOLIDATED BALANCE SHEETS (UNAUDITED) (Parenthetical)</t>
+    <t>consolidated balance sheets parenthetical</t>
+  </si>
+  <si>
+    <t>stockbased compensation recognized stockbased compensation expense details</t>
+  </si>
+  <si>
+    <t>condensed consolidated statements of cash flows unaudited parenthetical</t>
+  </si>
+  <si>
+    <t>commitments and contingencies details narrative</t>
+  </si>
+  <si>
+    <t>condensed consolidated balance sheets unaudited parenthetical</t>
   </si>
 </sst>
 </file>
